--- a/_CLUSTER/groups_time_area/PCA/1_groups_area_time_optimal_PCA.xlsx
+++ b/_CLUSTER/groups_time_area/PCA/1_groups_area_time_optimal_PCA.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CE7021-4DD4-4863-ABCA-7A823FDD00C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E393184-AD06-4F36-87D2-B326966B6F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
   </bookViews>
   <sheets>
     <sheet name="2_groups" sheetId="5" r:id="rId1"/>
     <sheet name="3_groups" sheetId="1" r:id="rId2"/>
     <sheet name="4_groups" sheetId="3" r:id="rId3"/>
     <sheet name="6_groups" sheetId="4" r:id="rId4"/>
+    <sheet name="Birch(2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Birch(4)" sheetId="8" r:id="rId6"/>
+    <sheet name="K_means(2)" sheetId="7" r:id="rId7"/>
+    <sheet name="K_means(4)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="57">
   <si>
     <t>Area1</t>
   </si>
@@ -689,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E362FAB3-749B-42AE-A5DF-A65E9F55F37B}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1134,7 @@
         <v>1038</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X11:X12" si="9">W12/$W$12*100</f>
+        <f t="shared" ref="X12" si="9">W12/$W$12*100</f>
         <v>100</v>
       </c>
     </row>
@@ -4171,7 +4175,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="T69" sqref="T69:T73"/>
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9572,4 +9576,7703 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068DDA40-3640-4ADF-8F55-C95CCC07A2CD}">
+  <dimension ref="A1:AB55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>308</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>65.671641791044777</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>136</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>45.63758389261745</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>341</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>54.126984126984127</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>35</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>61.403508771929829</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>821</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$5*100</f>
+        <v>56.348661633493478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>161</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">C4/469*100</f>
+        <v>34.328358208955223</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>162</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="1">G4/298*100</f>
+        <v>54.36241610738255</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>289</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="2">K4/630*100</f>
+        <v>45.873015873015873</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P5" si="3">O4/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>22</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T5" si="4">S4/57*100</f>
+        <v>38.596491228070171</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W5" si="5">C4+G4+K4+O4+S4</f>
+        <v>636</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X5" si="6">W4/$W$5*100</f>
+        <v>43.651338366506522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <f>SUM(C3:C4)</f>
+        <v>469</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(G3:G4)</f>
+        <v>298</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUM(K3:K4)</f>
+        <v>630</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S5" s="1">
+        <f>SUM(S3:S4)</f>
+        <v>57</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>G10/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>460</v>
+      </c>
+      <c r="L10">
+        <f>K10/715*100</f>
+        <v>64.335664335664333</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>193</v>
+      </c>
+      <c r="P10">
+        <f>O10/315*100</f>
+        <v>61.269841269841272</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>C10+G10+K10+O10</f>
+        <v>656</v>
+      </c>
+      <c r="X10">
+        <f>W10/$W$12*100</f>
+        <v>63.198458574181117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="7">G11/7*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L12" si="8">K11/715*100</f>
+        <v>35.664335664335667</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>122</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="9">O11/315*100</f>
+        <v>38.730158730158735</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f>C11+G11+K11+O11</f>
+        <v>382</v>
+      </c>
+      <c r="X11">
+        <f>W11/$W$12*100</f>
+        <v>36.801541425818883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUM(K10:K11)</f>
+        <v>715</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <f>SUM(O10:O11)</f>
+        <v>315</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <f>C12+G12+K12+O12</f>
+        <v>1038</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12" si="10">W12/$W$12*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <f>G17/99*100</f>
+        <v>67.676767676767682</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>655</v>
+      </c>
+      <c r="L17">
+        <f>K17/1002*100</f>
+        <v>65.36926147704591</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f>O17/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>C17+G17+K17+O17</f>
+        <v>725</v>
+      </c>
+      <c r="X17">
+        <f>W17/$W$19*100</f>
+        <v>65.37421100090171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="11">G18/99*100</f>
+        <v>32.323232323232325</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>347</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L19" si="12">K18/1002*100</f>
+        <v>34.63073852295409</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P19" si="13">O18/7*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W19" si="14">C18+G18+K18+O18</f>
+        <v>384</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X19" si="15">W18/$W$19*100</f>
+        <v>34.62578899909829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <f>SUM(G17:G18)</f>
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <f>SUM(K17:K18)</f>
+        <v>1002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="14"/>
+        <v>1109</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>308</v>
+      </c>
+      <c r="H25">
+        <f>G25/446*100</f>
+        <v>69.058295964125563</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <f>O25/15*100</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>C25+G25+K25+O25</f>
+        <v>320</v>
+      </c>
+      <c r="X25">
+        <f>W25/$W$27*100</f>
+        <v>68.817204301075279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>138</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H27" si="16">G26/446*100</f>
+        <v>30.941704035874441</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P27" si="17">O26/15*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26:W27" si="18">C26+G26+K26+O26</f>
+        <v>145</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X27" si="19">W26/$W$27*100</f>
+        <v>31.182795698924732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(G25:G26)</f>
+        <v>446</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <f>SUM(O25:O26)</f>
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>465</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>102</v>
+      </c>
+      <c r="D33">
+        <f>C33/164*100</f>
+        <v>62.195121951219512</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f>G33/13*100</f>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33</f>
+        <v>110</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$35*100</f>
+        <v>61.452513966480446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>62</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D35" si="20">C34/164*100</f>
+        <v>37.804878048780488</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H35" si="21">G34/13*100</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W35" si="22">C34+G34+K34</f>
+        <v>69</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X35" si="23">W34/$W$35*100</f>
+        <v>38.547486033519554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <f>SUM(C33:C34)</f>
+        <v>164</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="22"/>
+        <v>179</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>C3+C10+C17</f>
+        <v>308</v>
+      </c>
+      <c r="D41">
+        <f>C41/$C$43*100</f>
+        <v>65.392781316348191</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>136</v>
+      </c>
+      <c r="H41">
+        <v>45.63758389261745</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>K3+G10+G17+C25</f>
+        <v>412</v>
+      </c>
+      <c r="L41">
+        <f>K41/$K$43*100</f>
+        <v>55.902306648575305</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>O3+K10+K17+G25+C33</f>
+        <v>1526</v>
+      </c>
+      <c r="P41">
+        <f>O41/$O$43*100</f>
+        <v>65.493562231759654</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f>O10+O17+K25+G33</f>
+        <v>205</v>
+      </c>
+      <c r="T41">
+        <f>S41/$S$43*100</f>
+        <v>60.650887573964496</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>S3+O25+K33</f>
+        <v>45</v>
+      </c>
+      <c r="X41">
+        <f>W41/$W$43*100</f>
+        <v>60.810810810810814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C43" si="24">C4+C11+C18</f>
+        <v>163</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D43" si="25">C42/$C$43*100</f>
+        <v>34.607218683651801</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>162</v>
+      </c>
+      <c r="H42">
+        <v>54.36241610738255</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K43" si="26">K4+G11+G18+C26</f>
+        <v>325</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L43" si="27">K42/$K$43*100</f>
+        <v>44.097693351424695</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O43" si="28">O4+K11+K18+G26+C34</f>
+        <v>804</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P43" si="29">O42/$O$43*100</f>
+        <v>34.506437768240346</v>
+      </c>
+      <c r="R42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S43" si="30">O11+O18+K26+G34</f>
+        <v>133</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T43" si="31">S42/$S$43*100</f>
+        <v>39.349112426035504</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42:W43" si="32">S4+O26+K34</f>
+        <v>29</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42:X43" si="33">W42/$W$43*100</f>
+        <v>39.189189189189186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="shared" si="24"/>
+        <v>471</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>298</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="26"/>
+        <v>737</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="28"/>
+        <v>2330</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="30"/>
+        <v>338</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z47" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>G48+K48+O48+S48+W48</f>
+        <v>2632</v>
+      </c>
+      <c r="D48">
+        <f>C48/$C$50*100</f>
+        <v>61.958568738229758</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>821</v>
+      </c>
+      <c r="H48">
+        <v>56.348661633493478</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>656</v>
+      </c>
+      <c r="L48">
+        <v>63.198458574181117</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>725</v>
+      </c>
+      <c r="P48">
+        <v>65.37421100090171</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>320</v>
+      </c>
+      <c r="T48">
+        <v>68.817204301075279</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>110</v>
+      </c>
+      <c r="X48">
+        <v>61.452513966480446</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f>S48+W48</f>
+        <v>430</v>
+      </c>
+      <c r="AB48">
+        <f>AA48/$AA$50*100</f>
+        <v>66.770186335403722</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C50" si="34">G49+K49+O49+S49+W49</f>
+        <v>1616</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D50" si="35">C49/$C$50*100</f>
+        <v>38.041431261770242</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>636</v>
+      </c>
+      <c r="H49">
+        <v>43.651338366506522</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>382</v>
+      </c>
+      <c r="L49">
+        <v>36.801541425818883</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>384</v>
+      </c>
+      <c r="P49">
+        <v>34.62578899909829</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>145</v>
+      </c>
+      <c r="T49">
+        <v>31.182795698924732</v>
+      </c>
+      <c r="V49" s="7">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>69</v>
+      </c>
+      <c r="X49">
+        <v>38.547486033519554</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" ref="AA49:AA50" si="36">S49+W49</f>
+        <v>214</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" ref="AB49:AB50" si="37">AA49/$AA$50*100</f>
+        <v>33.229813664596278</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f t="shared" si="34"/>
+        <v>4248</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>1457</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>1038</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="O50">
+        <v>1109</v>
+      </c>
+      <c r="P50">
+        <v>100</v>
+      </c>
+      <c r="S50">
+        <v>465</v>
+      </c>
+      <c r="T50">
+        <v>100</v>
+      </c>
+      <c r="W50">
+        <v>179</v>
+      </c>
+      <c r="X50">
+        <v>100</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="36"/>
+        <v>644</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>S48+W48</f>
+        <v>430</v>
+      </c>
+      <c r="T53">
+        <f>S53/$S$55*100</f>
+        <v>66.770186335403722</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ref="S54:S55" si="38">S49+W49</f>
+        <v>214</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54:T55" si="39">S54/$S$55*100</f>
+        <v>33.229813664596278</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="S55">
+        <f t="shared" si="38"/>
+        <v>644</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94212669-1210-4118-A7A3-6E0426FF49B4}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>22.81449893390192</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>41.61073825503356</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>211</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>33.492063492063487</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>28.07017543859649</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>459</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>31.503088538091973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>11.513859275053305</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>12.751677852348994</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>78</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L8" si="2">K4/630*100</f>
+        <v>12.380952380952381</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>177</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>12.148249828414551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>14.072494669509595</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>7.7181208053691277</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>85</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>13.492063492063492</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>13</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>22.807017543859647</v>
+      </c>
+      <c r="V5" s="7">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>12.834591626630063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>242</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>51.599147121535182</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>113</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>37.919463087248324</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>256</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>40.634920634920633</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>22</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>38.596491228070171</v>
+      </c>
+      <c r="V6" s="7">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>634</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>43.51407000686342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="1">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>179</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>25.034965034965033</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>86</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>27.301587301587301</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>268</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>25.818882466281313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>10.62937062937063</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>36</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="V14" s="7">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>114</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>10.982658959537572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>81</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>11.328671328671328</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>35</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="V15" s="7">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>11.271676300578035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>379</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>53.006993006993007</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>158</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>50.158730158730158</v>
+      </c>
+      <c r="V16" s="7">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>539</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>51.926782273603081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>24.242424242424242</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>255</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>25.449101796407188</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>283</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>25.518485121731288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>8.0808080808080813</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>92</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>9.1816367265469054</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V24" s="7">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>101</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>9.1073038773669968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>13.131313131313133</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>103</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>10.27944111776447</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V25" s="7">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>117</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>10.550045085662759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>552</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>55.08982035928144</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V26" s="7">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>608</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>54.82416591523895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="1">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <f>SUM(O23:O26)</f>
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>108</v>
+      </c>
+      <c r="H33">
+        <f>G33/446*100</f>
+        <v>24.215246636771301</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>40</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>114</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>24.516129032258064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="17">G34/446*100</f>
+        <v>6.7264573991031389</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="18">O34/15*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="19">C34+G34+K34+O34</f>
+        <v>31</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="20">W34/$W$37*100</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>49</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>10.986547085201794</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V35" s="7">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="20"/>
+        <v>10.967741935483872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>259</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>58.071748878923771</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="N36" s="5">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="V36" s="7">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>269</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>57.8494623655914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <f>SUM(G33:G36)</f>
+        <v>446</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="O37" s="1">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>465</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>30.487804878048781</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>56</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>31.284916201117319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="21">C44/164*100</f>
+        <v>7.3170731707317067</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="22">G44/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="23">C44+G44+K44</f>
+        <v>13</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="24">W44/$W$47*100</f>
+        <v>7.2625698324022352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="21"/>
+        <v>10.975609756097562</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="V45" s="7">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="24"/>
+        <v>12.290502793296088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="21"/>
+        <v>51.219512195121951</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="22"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="V46" s="7">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="23"/>
+        <v>88</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="24"/>
+        <v>49.162011173184354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>22.929936305732486</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>124</v>
+      </c>
+      <c r="H52">
+        <v>41.61073825503356</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>238</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>32.293080054274078</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>593</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>25.450643776824034</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>95</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>28.106508875739642</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>22</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>29.72972972972973</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="25">C4+C14+C24</f>
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="26">C53/$C$56*100</f>
+        <v>11.677282377919321</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>38</v>
+      </c>
+      <c r="H53">
+        <v>12.751677852348994</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="27">K4+G14+G24+C34</f>
+        <v>87</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="28">K53/$K$56*100</f>
+        <v>11.804613297150611</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="29">O4+K14+K24+G34+C44</f>
+        <v>211</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="30">O53/$O$56*100</f>
+        <v>9.0557939914163104</v>
+      </c>
+      <c r="R53" s="7">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="31">O14+O24+K34+G44</f>
+        <v>38</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="32">S53/$S$56*100</f>
+        <v>11.242603550295858</v>
+      </c>
+      <c r="V53" s="7">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="33">S4+O34+K44</f>
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="34">W53/$W$56*100</f>
+        <v>9.4594594594594597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>14.012738853503185</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>7.7181208053691277</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>99</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>13.432835820895523</v>
+      </c>
+      <c r="N54" s="7">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="29"/>
+        <v>251</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="30"/>
+        <v>10.772532188841202</v>
+      </c>
+      <c r="R54" s="7">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="31"/>
+        <v>39</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="32"/>
+        <v>11.538461538461538</v>
+      </c>
+      <c r="V54" s="7">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="33"/>
+        <v>16</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="34"/>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="25"/>
+        <v>242</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="26"/>
+        <v>51.380042462845012</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>113</v>
+      </c>
+      <c r="H55">
+        <v>37.919463087248324</v>
+      </c>
+      <c r="J55" s="7">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>313</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>42.469470827679785</v>
+      </c>
+      <c r="N55" s="7">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="29"/>
+        <v>1275</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="30"/>
+        <v>54.72103004291845</v>
+      </c>
+      <c r="R55" s="7">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="31"/>
+        <v>166</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="32"/>
+        <v>49.112426035502956</v>
+      </c>
+      <c r="V55" s="7">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="33"/>
+        <v>29</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="34"/>
+        <v>39.189189189189186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="29"/>
+        <v>2330</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="33"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1180</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>459</v>
+      </c>
+      <c r="H61">
+        <v>31.503088538091973</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>268</v>
+      </c>
+      <c r="L61">
+        <v>25.818882466281313</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>283</v>
+      </c>
+      <c r="P61">
+        <v>25.518485121731288</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>114</v>
+      </c>
+      <c r="T61">
+        <v>24.516129032258064</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>56</v>
+      </c>
+      <c r="X61">
+        <v>31.284916201117319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="35">C53+G53+K53+O53+S53+W53</f>
+        <v>436</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="36">C62/$C$65*100</f>
+        <v>10.263653483992467</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>177</v>
+      </c>
+      <c r="H62">
+        <v>12.148249828414551</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>114</v>
+      </c>
+      <c r="L62">
+        <v>10.982658959537572</v>
+      </c>
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>101</v>
+      </c>
+      <c r="P62">
+        <v>9.1073038773669968</v>
+      </c>
+      <c r="R62" s="7">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>31</v>
+      </c>
+      <c r="T62">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V62" s="7">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>13</v>
+      </c>
+      <c r="X62">
+        <v>7.2625698324022352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="35"/>
+        <v>494</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="36"/>
+        <v>11.629001883239171</v>
+      </c>
+      <c r="F63" s="7">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>187</v>
+      </c>
+      <c r="H63">
+        <v>12.834591626630063</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>117</v>
+      </c>
+      <c r="L63">
+        <v>11.271676300578035</v>
+      </c>
+      <c r="N63" s="7">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>117</v>
+      </c>
+      <c r="P63">
+        <v>10.550045085662759</v>
+      </c>
+      <c r="R63" s="7">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>51</v>
+      </c>
+      <c r="T63">
+        <v>10.967741935483872</v>
+      </c>
+      <c r="V63" s="7">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>22</v>
+      </c>
+      <c r="X63">
+        <v>12.290502793296088</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="35"/>
+        <v>2138</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="36"/>
+        <v>50.329566854990581</v>
+      </c>
+      <c r="F64" s="7">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>634</v>
+      </c>
+      <c r="H64">
+        <v>43.51407000686342</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>539</v>
+      </c>
+      <c r="L64">
+        <v>51.926782273603081</v>
+      </c>
+      <c r="N64" s="7">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>608</v>
+      </c>
+      <c r="P64">
+        <v>54.82416591523895</v>
+      </c>
+      <c r="R64" s="7">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>269</v>
+      </c>
+      <c r="T64">
+        <v>57.8494623655914</v>
+      </c>
+      <c r="V64" s="7">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>88</v>
+      </c>
+      <c r="X64">
+        <v>49.162011173184354</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="35"/>
+        <v>4248</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>465</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>170</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>26.397515527950311</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="7">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="37">S62+W62</f>
+        <v>44</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="38">S70/$S$73*100</f>
+        <v>6.8322981366459627</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="7">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="37"/>
+        <v>73</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="38"/>
+        <v>11.335403726708075</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="7">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="37"/>
+        <v>357</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="38"/>
+        <v>55.434782608695656</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="37"/>
+        <v>644</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D49741-4789-4B19-930E-B9867703E8C6}">
+  <dimension ref="A1:AB55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>218</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>46.481876332622605</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>70.469798657718115</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>373</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>59.206349206349209</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>34</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>59.649122807017541</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>838</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$5*100</f>
+        <v>57.515442690459849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>251</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">C4/469*100</f>
+        <v>53.518123667377402</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="1">G4/298*100</f>
+        <v>29.530201342281881</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>257</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="2">K4/630*100</f>
+        <v>40.793650793650791</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>23</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T5" si="3">S4/57*100</f>
+        <v>40.350877192982452</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W5" si="4">C4+G4+K4+O4+S4</f>
+        <v>619</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X5" si="5">W4/$W$5*100</f>
+        <v>42.484557309540151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <f>SUM(C3:C4)</f>
+        <v>469</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(G3:G4)</f>
+        <v>298</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUM(K3:K4)</f>
+        <v>630</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="S5" s="1">
+        <f>SUM(S3:S4)</f>
+        <v>57</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>G10/7*100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>335</v>
+      </c>
+      <c r="L10">
+        <f>K10/715*100</f>
+        <v>46.853146853146853</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>153</v>
+      </c>
+      <c r="P10">
+        <f>O10/315*100</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>C10+G10+K10+O10</f>
+        <v>494</v>
+      </c>
+      <c r="X10">
+        <f>W10/$W$12*100</f>
+        <v>47.591522157996145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="6">G11/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>380</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L12" si="7">K11/715*100</f>
+        <v>53.146853146853147</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>162</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="8">O11/315*100</f>
+        <v>51.428571428571423</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ref="W11:W12" si="9">C11+G11+K11+O11</f>
+        <v>544</v>
+      </c>
+      <c r="X11">
+        <f>W11/$W$12*100</f>
+        <v>52.408477842003855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUM(K10:K11)</f>
+        <v>715</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <f>SUM(O10:O11)</f>
+        <v>315</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>1038</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12" si="10">W12/$W$12*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <f>G17/99*100</f>
+        <v>41.414141414141412</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>441</v>
+      </c>
+      <c r="L17">
+        <f>K17/1002*100</f>
+        <v>44.011976047904191</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f>O17/7*100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>C17+G17+K17+O17</f>
+        <v>488</v>
+      </c>
+      <c r="X17">
+        <f>W17/$W$19*100</f>
+        <v>44.003606853020742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="11">G18/99*100</f>
+        <v>58.585858585858588</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>561</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L19" si="12">K18/1002*100</f>
+        <v>55.988023952095809</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P19" si="13">O18/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W19" si="14">C18+G18+K18+O18</f>
+        <v>621</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X19" si="15">W18/$W$19*100</f>
+        <v>55.996393146979258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <f>SUM(G17:G18)</f>
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <f>SUM(K17:K18)</f>
+        <v>1002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="14"/>
+        <v>1109</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>174</v>
+      </c>
+      <c r="H25">
+        <f>G25/446*100</f>
+        <v>39.013452914798208</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>K25/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <f>O25/15*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>C25+G25+K25+O25</f>
+        <v>182</v>
+      </c>
+      <c r="X25">
+        <f>W25/$W$27*100</f>
+        <v>39.13978494623656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>272</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H27" si="16">G26/446*100</f>
+        <v>60.986547085201792</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L27" si="17">K26/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P27" si="18">O26/15*100</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26:W27" si="19">C26+G26+K26+O26</f>
+        <v>283</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X27" si="20">W26/$W$27*100</f>
+        <v>60.860215053763447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(G25:G26)</f>
+        <v>446</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <f>SUM(O25:O26)</f>
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="19"/>
+        <v>465</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <f>C33/164*100</f>
+        <v>51.829268292682926</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <f>G33/13*100</f>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33</f>
+        <v>96</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$35*100</f>
+        <v>53.631284916201118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D35" si="21">C34/164*100</f>
+        <v>48.170731707317074</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H35" si="22">G34/13*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W35" si="23">C34+G34+K34</f>
+        <v>83</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X35" si="24">W34/$W$35*100</f>
+        <v>46.368715083798882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <f>SUM(C33:C34)</f>
+        <v>164</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>C3+C10+C17</f>
+        <v>220</v>
+      </c>
+      <c r="D41">
+        <f>C41/$C$43*100</f>
+        <v>46.709129511677283</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>210</v>
+      </c>
+      <c r="H41">
+        <v>70.469798657718115</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>K3+G10+G17+C25</f>
+        <v>419</v>
+      </c>
+      <c r="L41">
+        <f>K41/$K$43*100</f>
+        <v>56.852103120759836</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>O3+K10+K17+G25+C33</f>
+        <v>1038</v>
+      </c>
+      <c r="P41">
+        <f>O41/$O$43*100</f>
+        <v>44.54935622317597</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f>O10+O17+K25+G33</f>
+        <v>170</v>
+      </c>
+      <c r="T41">
+        <f>S41/$S$43*100</f>
+        <v>50.295857988165679</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>S3+O25+K33</f>
+        <v>41</v>
+      </c>
+      <c r="X41">
+        <f>W41/$W$43*100</f>
+        <v>55.405405405405403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C43" si="25">C4+C11+C18</f>
+        <v>251</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D43" si="26">C42/$C$43*100</f>
+        <v>53.290870488322717</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>88</v>
+      </c>
+      <c r="H42">
+        <v>29.530201342281881</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K43" si="27">K4+G11+G18+C26</f>
+        <v>318</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L43" si="28">K42/$K$43*100</f>
+        <v>43.147896879240157</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O43" si="29">O4+K11+K18+G26+C34</f>
+        <v>1292</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P43" si="30">O42/$O$43*100</f>
+        <v>55.450643776824037</v>
+      </c>
+      <c r="R42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S43" si="31">O11+O18+K26+G34</f>
+        <v>168</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T43" si="32">S42/$S$43*100</f>
+        <v>49.704142011834321</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42:W43" si="33">S4+O26+K34</f>
+        <v>33</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42:X43" si="34">W42/$W$43*100</f>
+        <v>44.594594594594597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>298</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="29"/>
+        <v>2330</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="33"/>
+        <v>74</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z47" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>G48+K48+O48+S48+W48</f>
+        <v>2098</v>
+      </c>
+      <c r="D48">
+        <f>C48/$C$50*100</f>
+        <v>49.387947269303197</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>838</v>
+      </c>
+      <c r="H48">
+        <v>57.515442690459849</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>494</v>
+      </c>
+      <c r="L48">
+        <v>47.591522157996145</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>488</v>
+      </c>
+      <c r="P48">
+        <v>44.003606853020742</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>182</v>
+      </c>
+      <c r="T48">
+        <v>39.13978494623656</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>96</v>
+      </c>
+      <c r="X48">
+        <v>53.631284916201118</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f>S48+W48</f>
+        <v>278</v>
+      </c>
+      <c r="AB48">
+        <f>AA48/$AA$50*100</f>
+        <v>43.167701863354033</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C50" si="35">G49+K49+O49+S49+W49</f>
+        <v>2150</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D50" si="36">C49/$C$50*100</f>
+        <v>50.612052730696803</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>619</v>
+      </c>
+      <c r="H49">
+        <v>42.484557309540151</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>544</v>
+      </c>
+      <c r="L49">
+        <v>52.408477842003855</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>621</v>
+      </c>
+      <c r="P49">
+        <v>55.996393146979258</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>283</v>
+      </c>
+      <c r="T49">
+        <v>60.860215053763447</v>
+      </c>
+      <c r="V49" s="7">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>83</v>
+      </c>
+      <c r="X49">
+        <v>46.368715083798882</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" ref="AA49:AA50" si="37">S49+W49</f>
+        <v>366</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" ref="AB49:AB50" si="38">AA49/$AA$50*100</f>
+        <v>56.832298136645967</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f t="shared" si="35"/>
+        <v>4248</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>1457</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>1038</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="O50">
+        <v>1109</v>
+      </c>
+      <c r="P50">
+        <v>100</v>
+      </c>
+      <c r="S50">
+        <v>465</v>
+      </c>
+      <c r="T50">
+        <v>100</v>
+      </c>
+      <c r="W50">
+        <v>179</v>
+      </c>
+      <c r="X50">
+        <v>100</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="37"/>
+        <v>644</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>S48+W48</f>
+        <v>278</v>
+      </c>
+      <c r="T53">
+        <f>S53/$S$55*100</f>
+        <v>43.167701863354033</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ref="S54:S55" si="39">S49+W49</f>
+        <v>366</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54:T55" si="40">S54/$S$55*100</f>
+        <v>56.832298136645967</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="S55">
+        <f t="shared" si="39"/>
+        <v>644</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21C0D7E-75CD-4583-83D6-8E82DBC3AF7A}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>38.805970149253731</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>33.221476510067113</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>206</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>32.698412698412696</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>22</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>38.596491228070171</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>510</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>35.00343170899108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>22.60127931769723</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>124</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>41.61073825503356</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>221</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>35.079365079365076</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>29.82456140350877</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>470</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>32.258064516129032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15.351812366737741</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>14.093959731543624</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>98</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>17.543859649122805</v>
+      </c>
+      <c r="V5" s="7">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>15.236787920384351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>109</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>23.240938166311302</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>11.073825503355705</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>105</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>14.035087719298245</v>
+      </c>
+      <c r="V6" s="7">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>17.50171585449554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="1">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>194</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>27.132867132867133</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>93</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>29.523809523809526</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>288</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>27.74566473988439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>191</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>26.713286713286717</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>92</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>29.206349206349209</v>
+      </c>
+      <c r="V14" s="7">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>288</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>27.74566473988439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>89</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>12.447552447552447</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="V15" s="7">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>12.138728323699421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>241</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>33.706293706293707</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>94</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>29.841269841269842</v>
+      </c>
+      <c r="V16" s="7">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>336</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>32.369942196531795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>29.292929292929294</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>287</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>28.642714570858285</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>319</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>28.764652840396753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>24.242424242424242</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>234</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>23.353293413173652</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V24" s="7">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>262</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>23.624887285843101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>130</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>12.974051896207584</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V25" s="7">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>146</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>13.165013525698827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>31.313131313131315</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>351</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>35.029940119760475</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>382</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>34.445446348061317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="1">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>115</v>
+      </c>
+      <c r="H33">
+        <f>G33/446*100</f>
+        <v>25.784753363228702</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>120</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>25.806451612903224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>88</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H36" si="17">G34/446*100</f>
+        <v>19.730941704035875</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="18">K34/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="19">O34/15*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="20">C34+G34+K34+O34</f>
+        <v>91</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="21">W34/$W$37*100</f>
+        <v>19.56989247311828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>13.452914798206278</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V35" s="7">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="21"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>183</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>41.031390134529147</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="18"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N36" s="5">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="V36" s="7">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>192</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="21"/>
+        <v>41.29032258064516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <f>SUM(G33:G36)</f>
+        <v>446</v>
+      </c>
+      <c r="H37">
+        <f>G37/446*100</f>
+        <v>100</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="1">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="20"/>
+        <v>465</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>35.975609756097562</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>62</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>34.63687150837989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="22">C44/164*100</f>
+        <v>24.390243902439025</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="23">G44/13*100</f>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="24">C44+G44+K44</f>
+        <v>46</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="25">W44/$W$47*100</f>
+        <v>25.69832402234637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>17.073170731707318</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="23"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="V45" s="7">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="24"/>
+        <v>33</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="25"/>
+        <v>18.435754189944134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="22"/>
+        <v>22.560975609756099</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="24"/>
+        <v>38</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="25"/>
+        <v>21.229050279329609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>182</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>38.641188959660298</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>99</v>
+      </c>
+      <c r="H52">
+        <v>33.221476510067113</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>236</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>32.021709633649934</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>656</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>28.154506437768241</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>98</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>28.994082840236686</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>28</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>37.837837837837839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="26">C4+C14+C24</f>
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="27">C53/$C$56*100</f>
+        <v>22.929936305732486</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>124</v>
+      </c>
+      <c r="H53">
+        <v>41.61073825503356</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="28">K4+G14+G24+C34</f>
+        <v>249</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="29">K53/$K$56*100</f>
+        <v>33.785617367706919</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="30">O4+K14+K24+G34+C44</f>
+        <v>555</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="31">O53/$O$56*100</f>
+        <v>23.819742489270386</v>
+      </c>
+      <c r="R53" s="7">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="32">O14+O24+K34+G44</f>
+        <v>102</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="33">S53/$S$56*100</f>
+        <v>30.177514792899409</v>
+      </c>
+      <c r="V53" s="7">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="34">S4+O34+K44</f>
+        <v>19</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="35">W53/$W$56*100</f>
+        <v>25.675675675675674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="27"/>
+        <v>15.286624203821656</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>42</v>
+      </c>
+      <c r="H54">
+        <v>14.093959731543624</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="28"/>
+        <v>114</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="29"/>
+        <v>15.468113975576662</v>
+      </c>
+      <c r="N54" s="7">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="30"/>
+        <v>307</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="31"/>
+        <v>13.175965665236051</v>
+      </c>
+      <c r="R54" s="7">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="32"/>
+        <v>41</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="33"/>
+        <v>12.1301775147929</v>
+      </c>
+      <c r="V54" s="7">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="35"/>
+        <v>17.567567567567568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="26"/>
+        <v>109</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>23.142250530785564</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>33</v>
+      </c>
+      <c r="H55">
+        <v>11.073825503355705</v>
+      </c>
+      <c r="J55" s="7">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="28"/>
+        <v>138</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="29"/>
+        <v>18.724559023066487</v>
+      </c>
+      <c r="N55" s="7">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="30"/>
+        <v>812</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="31"/>
+        <v>34.849785407725321</v>
+      </c>
+      <c r="R55" s="7">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="32"/>
+        <v>97</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="33"/>
+        <v>28.698224852071007</v>
+      </c>
+      <c r="V55" s="7">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="35"/>
+        <v>18.918918918918919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="26"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="28"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="30"/>
+        <v>2330</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="32"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1299</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>30.57909604519774</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>510</v>
+      </c>
+      <c r="H61">
+        <v>35.00343170899108</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>288</v>
+      </c>
+      <c r="L61">
+        <v>27.74566473988439</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>319</v>
+      </c>
+      <c r="P61">
+        <v>28.764652840396753</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>120</v>
+      </c>
+      <c r="T61">
+        <v>25.806451612903224</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>62</v>
+      </c>
+      <c r="X61">
+        <v>34.63687150837989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="36">C53+G53+K53+O53+S53+W53</f>
+        <v>1157</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="37">C62/$C$65*100</f>
+        <v>27.236346516007533</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>470</v>
+      </c>
+      <c r="H62">
+        <v>32.258064516129032</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>288</v>
+      </c>
+      <c r="L62">
+        <v>27.74566473988439</v>
+      </c>
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>262</v>
+      </c>
+      <c r="P62">
+        <v>23.624887285843101</v>
+      </c>
+      <c r="R62" s="7">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>91</v>
+      </c>
+      <c r="T62">
+        <v>19.56989247311828</v>
+      </c>
+      <c r="V62" s="7">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>46</v>
+      </c>
+      <c r="X62">
+        <v>25.69832402234637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="36"/>
+        <v>589</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="37"/>
+        <v>13.865348399246704</v>
+      </c>
+      <c r="F63" s="7">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>222</v>
+      </c>
+      <c r="H63">
+        <v>15.236787920384351</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>126</v>
+      </c>
+      <c r="L63">
+        <v>12.138728323699421</v>
+      </c>
+      <c r="N63" s="7">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>146</v>
+      </c>
+      <c r="P63">
+        <v>13.165013525698827</v>
+      </c>
+      <c r="R63" s="7">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>62</v>
+      </c>
+      <c r="T63">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V63" s="7">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>33</v>
+      </c>
+      <c r="X63">
+        <v>18.435754189944134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="36"/>
+        <v>1203</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="37"/>
+        <v>28.319209039548021</v>
+      </c>
+      <c r="F64" s="7">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>255</v>
+      </c>
+      <c r="H64">
+        <v>17.50171585449554</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>336</v>
+      </c>
+      <c r="L64">
+        <v>32.369942196531795</v>
+      </c>
+      <c r="N64" s="7">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>382</v>
+      </c>
+      <c r="P64">
+        <v>34.445446348061317</v>
+      </c>
+      <c r="R64" s="7">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>192</v>
+      </c>
+      <c r="T64">
+        <v>41.29032258064516</v>
+      </c>
+      <c r="V64" s="7">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>38</v>
+      </c>
+      <c r="X64">
+        <v>21.229050279329609</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="36"/>
+        <v>4248</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>465</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>182</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>28.260869565217391</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="7">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="38">S62+W62</f>
+        <v>137</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="39">S70/$S$73*100</f>
+        <v>21.273291925465841</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="7">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="38"/>
+        <v>95</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="39"/>
+        <v>14.751552795031056</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="7">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="38"/>
+        <v>230</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="39"/>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="38"/>
+        <v>644</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>